--- a/Excel-XLSX/UN-GHA.xlsx
+++ b/Excel-XLSX/UN-GHA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="959">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7t0XoU</t>
+    <t>t37EyO</t>
   </si>
   <si>
     <t>1969</t>
@@ -2796,12 +2796,12 @@
     <t>631</t>
   </si>
   <si>
-    <t>4108</t>
-  </si>
-  <si>
     <t>633</t>
   </si>
   <si>
+    <t>9443</t>
+  </si>
+  <si>
     <t>634</t>
   </si>
   <si>
@@ -2832,6 +2832,9 @@
     <t>643</t>
   </si>
   <si>
+    <t>680</t>
+  </si>
+  <si>
     <t>644</t>
   </si>
   <si>
@@ -2868,15 +2871,18 @@
     <t>655</t>
   </si>
   <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
     <t>3404</t>
   </si>
   <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
     <t>658</t>
   </si>
   <si>
@@ -2884,6 +2890,9 @@
   </si>
   <si>
     <t>660</t>
+  </si>
+  <si>
+    <t>662</t>
   </si>
 </sst>
 </file>
@@ -3268,7 +3277,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V661"/>
+  <dimension ref="A1:V663"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -46089,10 +46098,10 @@
         <v>31</v>
       </c>
       <c r="N630" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O630" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P630" s="2" t="s">
         <v>33</v>
@@ -46133,16 +46142,16 @@
         <v>923</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>188</v>
+        <v>677</v>
       </c>
       <c r="H631" s="1" t="s">
-        <v>189</v>
+        <v>678</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>189</v>
+        <v>679</v>
       </c>
       <c r="J631" s="2" t="s">
         <v>29</v>
@@ -46157,10 +46166,10 @@
         <v>31</v>
       </c>
       <c r="N631" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O631" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="P631" s="2" t="s">
         <v>33</v>
@@ -46201,16 +46210,16 @@
         <v>923</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>328</v>
+        <v>188</v>
       </c>
       <c r="H632" s="1" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>29</v>
@@ -46225,10 +46234,10 @@
         <v>31</v>
       </c>
       <c r="N632" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P632" s="2" t="s">
         <v>33</v>
@@ -46269,16 +46278,16 @@
         <v>923</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="H633" s="1" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="J633" s="2" t="s">
         <v>29</v>
@@ -46293,10 +46302,10 @@
         <v>31</v>
       </c>
       <c r="N633" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>926</v>
+        <v>33</v>
       </c>
       <c r="P633" s="2" t="s">
         <v>33</v>
@@ -46331,22 +46340,22 @@
         <v>22</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G634" s="1" t="s">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="H634" s="1" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="J634" s="2" t="s">
         <v>29</v>
@@ -46361,10 +46370,10 @@
         <v>31</v>
       </c>
       <c r="N634" s="2" t="s">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="O634" s="2" t="s">
-        <v>198</v>
+        <v>927</v>
       </c>
       <c r="P634" s="2" t="s">
         <v>33</v>
@@ -46405,16 +46414,16 @@
         <v>923</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G635" s="1" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="H635" s="1" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="J635" s="2" t="s">
         <v>29</v>
@@ -46429,10 +46438,10 @@
         <v>31</v>
       </c>
       <c r="N635" s="2" t="s">
-        <v>150</v>
+        <v>407</v>
       </c>
       <c r="O635" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P635" s="2" t="s">
         <v>33</v>
@@ -46473,16 +46482,16 @@
         <v>923</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G636" s="1" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="H636" s="1" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="J636" s="2" t="s">
         <v>29</v>
@@ -46497,10 +46506,10 @@
         <v>31</v>
       </c>
       <c r="N636" s="2" t="s">
-        <v>841</v>
+        <v>153</v>
       </c>
       <c r="O636" s="2" t="s">
-        <v>529</v>
+        <v>64</v>
       </c>
       <c r="P636" s="2" t="s">
         <v>33</v>
@@ -46541,16 +46550,16 @@
         <v>923</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G637" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H637" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J637" s="2" t="s">
         <v>29</v>
@@ -46565,10 +46574,10 @@
         <v>31</v>
       </c>
       <c r="N637" s="2" t="s">
-        <v>59</v>
+        <v>914</v>
       </c>
       <c r="O637" s="2" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="P637" s="2" t="s">
         <v>33</v>
@@ -46609,16 +46618,16 @@
         <v>923</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G638" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H638" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="J638" s="2" t="s">
         <v>29</v>
@@ -46633,10 +46642,10 @@
         <v>31</v>
       </c>
       <c r="N638" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="O638" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="P638" s="2" t="s">
         <v>33</v>
@@ -46677,16 +46686,16 @@
         <v>923</v>
       </c>
       <c r="F639" s="2" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>477</v>
+        <v>232</v>
       </c>
       <c r="H639" s="1" t="s">
-        <v>478</v>
+        <v>233</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>479</v>
+        <v>233</v>
       </c>
       <c r="J639" s="2" t="s">
         <v>29</v>
@@ -46701,10 +46710,10 @@
         <v>31</v>
       </c>
       <c r="N639" s="2" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="O639" s="2" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="P639" s="2" t="s">
         <v>33</v>
@@ -46745,16 +46754,16 @@
         <v>923</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="G640" s="1" t="s">
-        <v>109</v>
+        <v>477</v>
       </c>
       <c r="H640" s="1" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>110</v>
+        <v>479</v>
       </c>
       <c r="J640" s="2" t="s">
         <v>29</v>
@@ -46769,10 +46778,10 @@
         <v>31</v>
       </c>
       <c r="N640" s="2" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="O640" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P640" s="2" t="s">
         <v>33</v>
@@ -46813,16 +46822,16 @@
         <v>923</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G641" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H641" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J641" s="2" t="s">
         <v>29</v>
@@ -46840,7 +46849,7 @@
         <v>78</v>
       </c>
       <c r="O641" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="P641" s="2" t="s">
         <v>33</v>
@@ -46881,16 +46890,16 @@
         <v>923</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="G642" s="1" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="H642" s="1" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="I642" s="1" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="J642" s="2" t="s">
         <v>29</v>
@@ -46905,7 +46914,7 @@
         <v>31</v>
       </c>
       <c r="N642" s="2" t="s">
-        <v>904</v>
+        <v>78</v>
       </c>
       <c r="O642" s="2" t="s">
         <v>33</v>
@@ -46949,16 +46958,16 @@
         <v>923</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G643" s="1" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="H643" s="1" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>455</v>
+        <v>342</v>
       </c>
       <c r="J643" s="2" t="s">
         <v>29</v>
@@ -46973,10 +46982,10 @@
         <v>31</v>
       </c>
       <c r="N643" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="O643" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P643" s="2" t="s">
         <v>33</v>
@@ -47017,16 +47026,16 @@
         <v>923</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c r="G644" s="1" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="H644" s="1" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="J644" s="2" t="s">
         <v>29</v>
@@ -47041,7 +47050,7 @@
         <v>31</v>
       </c>
       <c r="N644" s="2" t="s">
-        <v>872</v>
+        <v>938</v>
       </c>
       <c r="O644" s="2" t="s">
         <v>33</v>
@@ -47079,22 +47088,22 @@
         <v>22</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="G645" s="1" t="s">
-        <v>200</v>
+        <v>454</v>
       </c>
       <c r="H645" s="1" t="s">
-        <v>201</v>
+        <v>455</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>201</v>
+        <v>455</v>
       </c>
       <c r="J645" s="2" t="s">
         <v>29</v>
@@ -47109,10 +47118,10 @@
         <v>31</v>
       </c>
       <c r="N645" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="O645" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P645" s="2" t="s">
         <v>33</v>
@@ -47147,22 +47156,22 @@
         <v>22</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="G646" s="1" t="s">
-        <v>510</v>
+        <v>86</v>
       </c>
       <c r="H646" s="1" t="s">
-        <v>511</v>
+        <v>87</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>512</v>
+        <v>87</v>
       </c>
       <c r="J646" s="2" t="s">
         <v>29</v>
@@ -47177,7 +47186,7 @@
         <v>31</v>
       </c>
       <c r="N646" s="2" t="s">
-        <v>59</v>
+        <v>872</v>
       </c>
       <c r="O646" s="2" t="s">
         <v>33</v>
@@ -47215,22 +47224,22 @@
         <v>22</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>295</v>
+        <v>199</v>
       </c>
       <c r="G647" s="1" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="H647" s="1" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="J647" s="2" t="s">
         <v>29</v>
@@ -47245,10 +47254,10 @@
         <v>31</v>
       </c>
       <c r="N647" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O647" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P647" s="2" t="s">
         <v>33</v>
@@ -47283,22 +47292,22 @@
         <v>22</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="G648" s="1" t="s">
-        <v>155</v>
+        <v>510</v>
       </c>
       <c r="H648" s="1" t="s">
-        <v>156</v>
+        <v>511</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>157</v>
+        <v>512</v>
       </c>
       <c r="J648" s="2" t="s">
         <v>29</v>
@@ -47313,10 +47322,10 @@
         <v>31</v>
       </c>
       <c r="N648" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O648" s="2" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="P648" s="2" t="s">
         <v>33</v>
@@ -47351,22 +47360,22 @@
         <v>22</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="G649" s="1" t="s">
-        <v>541</v>
+        <v>311</v>
       </c>
       <c r="H649" s="1" t="s">
-        <v>542</v>
+        <v>312</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>542</v>
+        <v>312</v>
       </c>
       <c r="J649" s="2" t="s">
         <v>29</v>
@@ -47381,7 +47390,7 @@
         <v>31</v>
       </c>
       <c r="N649" s="2" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="O649" s="2" t="s">
         <v>44</v>
@@ -47419,22 +47428,22 @@
         <v>22</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G650" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="H650" s="1" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="J650" s="2" t="s">
         <v>29</v>
@@ -47449,10 +47458,10 @@
         <v>31</v>
       </c>
       <c r="N650" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="O650" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="P650" s="2" t="s">
         <v>33</v>
@@ -47487,22 +47496,22 @@
         <v>22</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="G651" s="1" t="s">
-        <v>179</v>
+        <v>541</v>
       </c>
       <c r="H651" s="1" t="s">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>180</v>
+        <v>542</v>
       </c>
       <c r="J651" s="2" t="s">
         <v>29</v>
@@ -47517,10 +47526,10 @@
         <v>31</v>
       </c>
       <c r="N651" s="2" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="O651" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P651" s="2" t="s">
         <v>33</v>
@@ -47555,22 +47564,22 @@
         <v>22</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="G652" s="1" t="s">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="H652" s="1" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="J652" s="2" t="s">
         <v>29</v>
@@ -47585,10 +47594,10 @@
         <v>31</v>
       </c>
       <c r="N652" s="2" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="O652" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P652" s="2" t="s">
         <v>33</v>
@@ -47623,22 +47632,22 @@
         <v>22</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>379</v>
+        <v>178</v>
       </c>
       <c r="G653" s="1" t="s">
-        <v>665</v>
+        <v>179</v>
       </c>
       <c r="H653" s="1" t="s">
-        <v>666</v>
+        <v>180</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>666</v>
+        <v>180</v>
       </c>
       <c r="J653" s="2" t="s">
         <v>29</v>
@@ -47653,10 +47662,10 @@
         <v>31</v>
       </c>
       <c r="N653" s="2" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="O653" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="P653" s="2" t="s">
         <v>33</v>
@@ -47691,22 +47700,22 @@
         <v>22</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="G654" s="1" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="H654" s="1" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="J654" s="2" t="s">
         <v>29</v>
@@ -47721,10 +47730,10 @@
         <v>31</v>
       </c>
       <c r="N654" s="2" t="s">
-        <v>839</v>
+        <v>248</v>
       </c>
       <c r="O654" s="2" t="s">
-        <v>632</v>
+        <v>33</v>
       </c>
       <c r="P654" s="2" t="s">
         <v>33</v>
@@ -47759,22 +47768,22 @@
         <v>22</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G655" s="1" t="s">
-        <v>576</v>
+        <v>665</v>
       </c>
       <c r="H655" s="1" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
       <c r="J655" s="2" t="s">
         <v>29</v>
@@ -47789,10 +47798,10 @@
         <v>31</v>
       </c>
       <c r="N655" s="2" t="s">
-        <v>501</v>
+        <v>52</v>
       </c>
       <c r="O655" s="2" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="P655" s="2" t="s">
         <v>33</v>
@@ -47827,22 +47836,22 @@
         <v>22</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E656" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G656" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H656" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J656" s="2" t="s">
         <v>29</v>
@@ -47857,10 +47866,10 @@
         <v>31</v>
       </c>
       <c r="N656" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O656" s="2" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="P656" s="2" t="s">
         <v>33</v>
@@ -47895,22 +47904,22 @@
         <v>22</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E657" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G657" s="1" t="s">
-        <v>742</v>
+        <v>576</v>
       </c>
       <c r="H657" s="1" t="s">
-        <v>743</v>
+        <v>577</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>743</v>
+        <v>577</v>
       </c>
       <c r="J657" s="2" t="s">
         <v>29</v>
@@ -47925,10 +47934,10 @@
         <v>31</v>
       </c>
       <c r="N657" s="2" t="s">
-        <v>29</v>
+        <v>519</v>
       </c>
       <c r="O657" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P657" s="2" t="s">
         <v>33</v>
@@ -47963,22 +47972,22 @@
         <v>22</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="G658" s="1" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="H658" s="1" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>326</v>
+        <v>142</v>
       </c>
       <c r="J658" s="2" t="s">
         <v>29</v>
@@ -47993,10 +48002,10 @@
         <v>31</v>
       </c>
       <c r="N658" s="2" t="s">
-        <v>61</v>
+        <v>954</v>
       </c>
       <c r="O658" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="P658" s="2" t="s">
         <v>33</v>
@@ -48031,22 +48040,22 @@
         <v>22</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G659" s="1" t="s">
-        <v>887</v>
+        <v>742</v>
       </c>
       <c r="H659" s="1" t="s">
-        <v>888</v>
+        <v>743</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>888</v>
+        <v>743</v>
       </c>
       <c r="J659" s="2" t="s">
         <v>29</v>
@@ -48061,10 +48070,10 @@
         <v>31</v>
       </c>
       <c r="N659" s="2" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="O659" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P659" s="2" t="s">
         <v>33</v>
@@ -48099,22 +48108,22 @@
         <v>22</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E660" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="G660" s="1" t="s">
-        <v>673</v>
+        <v>325</v>
       </c>
       <c r="H660" s="1" t="s">
-        <v>674</v>
+        <v>326</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>674</v>
+        <v>326</v>
       </c>
       <c r="J660" s="2" t="s">
         <v>29</v>
@@ -48129,7 +48138,7 @@
         <v>31</v>
       </c>
       <c r="N660" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O660" s="2" t="s">
         <v>33</v>
@@ -48167,60 +48176,196 @@
         <v>22</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E661" s="2" t="s">
         <v>923</v>
       </c>
       <c r="F661" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="J661" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K661" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L661" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O661" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T661" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U661" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V661" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J662" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K662" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L662" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N662" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T662" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U662" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V662" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F663" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G661" s="1" t="s">
+      <c r="G663" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H661" s="1" t="s">
+      <c r="H663" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I661" s="1" t="s">
+      <c r="I663" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="J661" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K661" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L661" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M661" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N661" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T661" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U661" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V661" s="2" t="s">
+      <c r="J663" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K663" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N663" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T663" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U663" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V663" s="2" t="s">
         <v>33</v>
       </c>
     </row>
